--- a/DataOverview/W4_ICtypesTRaC_withEQS.xlsx
+++ b/DataOverview/W4_ICtypesTRaC_withEQS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">surfaceWaterBodyIntercalibrationTypeCode</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">RW-R-M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW-R-M4</t>
   </si>
   <si>
     <t xml:space="preserve">TW-BT1</t>
@@ -452,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>576</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>319</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1313</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +599,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>311</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>305</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>163</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +655,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>151</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +671,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>66</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +679,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>868</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -684,13 +687,21 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>2098</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32"/>
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
       <c r="B32" t="n">
-        <v>5567</v>
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33" t="n">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
